--- a/csv/rf/rf_rawfda_init.xlsx
+++ b/csv/rf/rf_rawfda_init.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Best Perf." r:id="rId3" sheetId="1"/>
-    <sheet name="Best Par." r:id="rId4" sheetId="2"/>
-    <sheet name="Perf." r:id="rId5" sheetId="3"/>
+    <sheet name="Sel. Par." r:id="rId4" sheetId="2"/>
+    <sheet name="Best Par." r:id="rId5" sheetId="3"/>
+    <sheet name="Perf." r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -28,22 +29,22 @@
     <t>mtry</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>6</t>
@@ -165,7 +166,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05541125541125543</v>
+        <v>0.04653679653679654</v>
       </c>
     </row>
   </sheetData>
@@ -195,7 +196,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>50.0</v>
+        <v>500.0</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -222,6 +223,39 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
@@ -240,15 +274,15 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07424242424242425</v>
+        <v>0.07900432900432901</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07067798382788519</v>
+        <v>0.054493607829071276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>50.0</v>
@@ -257,15 +291,15 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05541125541125543</v>
+        <v>0.05108225108225108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0527357310228262</v>
+        <v>0.05125398123403253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>100.0</v>
@@ -274,15 +308,15 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05541125541125543</v>
+        <v>0.05108225108225108</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0527357310228262</v>
+        <v>0.05125398123403253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>250.0</v>
@@ -291,15 +325,15 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06017316017316019</v>
+        <v>0.05129870129870131</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05408657384981986</v>
+        <v>0.04130930312460311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>500.0</v>
@@ -308,10 +342,10 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05541125541125543</v>
+        <v>0.04653679653679654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0527357310228262</v>
+        <v>0.044408940861397336</v>
       </c>
     </row>
     <row r="7">
@@ -325,10 +359,10 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0787878787878788</v>
+        <v>0.06969696969696972</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04936035279236181</v>
+        <v>0.05014092610654921</v>
       </c>
     </row>
     <row r="8">
@@ -342,10 +376,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06017316017316019</v>
+        <v>0.0603896103896104</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05408657384981986</v>
+        <v>0.03868549347828351</v>
       </c>
     </row>
     <row r="9">
@@ -359,10 +393,10 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06017316017316019</v>
+        <v>0.05562770562770562</v>
       </c>
       <c r="E9" t="n">
-        <v>0.043789804055190305</v>
+        <v>0.0481414564426788</v>
       </c>
     </row>
     <row r="10">
@@ -376,10 +410,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06017316017316019</v>
+        <v>0.05086580086580086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.043789804055190305</v>
+        <v>0.04026529982766947</v>
       </c>
     </row>
     <row r="11">
@@ -393,10 +427,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06493506493506496</v>
+        <v>0.06493506493506494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05015338296387524</v>
+        <v>0.044849264842482126</v>
       </c>
     </row>
     <row r="12">
@@ -410,10 +444,10 @@
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06948051948051949</v>
+        <v>0.05562770562770564</v>
       </c>
       <c r="E12" t="n">
-        <v>0.039524149331012795</v>
+        <v>0.02916594716495759</v>
       </c>
     </row>
     <row r="13">
@@ -427,10 +461,10 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0694805194805195</v>
+        <v>0.06017316017316018</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04545397283131836</v>
+        <v>0.0492082534236076</v>
       </c>
     </row>
     <row r="14">
@@ -444,10 +478,10 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06969696969696972</v>
+        <v>0.060389610389610396</v>
       </c>
       <c r="E14" t="n">
-        <v>0.050585382412899386</v>
+        <v>0.044223344835409066</v>
       </c>
     </row>
     <row r="15">
@@ -461,10 +495,10 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06471861471861473</v>
+        <v>0.06017316017316018</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0389403237110467</v>
+        <v>0.0492082534236076</v>
       </c>
     </row>
     <row r="16">
@@ -478,10 +512,10 @@
         <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06948051948051949</v>
+        <v>0.06017316017316018</v>
       </c>
       <c r="E16" t="n">
-        <v>0.039524149331012795</v>
+        <v>0.0492082534236076</v>
       </c>
     </row>
     <row r="17">
@@ -495,10 +529,10 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06471861471861474</v>
+        <v>0.05995670995670995</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04494723658392287</v>
+        <v>0.03768486054798411</v>
       </c>
     </row>
     <row r="18">
@@ -512,10 +546,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07424242424242425</v>
+        <v>0.06017316017316018</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04540355370660229</v>
+        <v>0.037598426474813186</v>
       </c>
     </row>
     <row r="19">
@@ -529,10 +563,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06471861471861473</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0389403237110467</v>
+        <v>0.04533183923082365</v>
       </c>
     </row>
     <row r="20">
@@ -546,10 +580,10 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05995670995670997</v>
+        <v>0.06493506493506494</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03768486054798412</v>
+        <v>0.044849264842482126</v>
       </c>
     </row>
     <row r="21">
@@ -563,10 +597,10 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07402597402597404</v>
+        <v>0.06493506493506494</v>
       </c>
       <c r="E21" t="n">
-        <v>0.049891135814374654</v>
+        <v>0.044849264842482126</v>
       </c>
     </row>
     <row r="22">
@@ -580,10 +614,10 @@
         <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07402597402597404</v>
+        <v>0.06038961038961038</v>
       </c>
       <c r="E22" t="n">
-        <v>0.049891135814374654</v>
+        <v>0.03925985033969383</v>
       </c>
     </row>
     <row r="23">
@@ -597,10 +631,10 @@
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07878787878787881</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04396065470368238</v>
+        <v>0.04533183923082365</v>
       </c>
     </row>
     <row r="24">
@@ -614,10 +648,10 @@
         <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07402597402597404</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="E24" t="n">
-        <v>0.049891135814374654</v>
+        <v>0.03985205822660234</v>
       </c>
     </row>
     <row r="25">
@@ -631,10 +665,10 @@
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06450216450216452</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04403873973468423</v>
+        <v>0.03985205822660234</v>
       </c>
     </row>
     <row r="26">
@@ -648,10 +682,10 @@
         <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07402597402597404</v>
+        <v>0.06515151515151515</v>
       </c>
       <c r="E26" t="n">
-        <v>0.049891135814374654</v>
+        <v>0.03985205822660234</v>
       </c>
     </row>
   </sheetData>
